--- a/Data_Input/Portal/Master_Execution_Summary.xlsx
+++ b/Data_Input/Portal/Master_Execution_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B496GZ\Desktop\Automation Testing\Data_Input\Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Portal\Data_Input\Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA38B4-069F-4E9B-90A5-A8FB9183CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E38A48-540B-47FF-98AD-957DCD64A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{D2D81E55-7330-49A0-8FE1-7ABE94758941}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2D81E55-7330-49A0-8FE1-7ABE94758941}"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Summary" sheetId="8" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -100,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,13 +106,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +177,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,18 +493,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.4140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -517,18 +515,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -539,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -550,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -561,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -583,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>

--- a/Data_Input/Portal/Master_Execution_Summary.xlsx
+++ b/Data_Input/Portal/Master_Execution_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Portal\Data_Input\Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E38A48-540B-47FF-98AD-957DCD64A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D104A443-75A3-429B-BFC2-98E7B33B7010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2D81E55-7330-49A0-8FE1-7ABE94758941}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -586,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
